--- a/StoryTools/example/LocalizationNPC.xlsx
+++ b/StoryTools/example/LocalizationNPC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SGAME\gamedata\numeric\zh-cn\data_init\Localization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12287\Project\StoryTools\StoryTools\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5C601B1-B2A0-48B7-9F7C-8005A2F7DB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DDF10DF5-C52F-4824-8ADE-183D791BE1BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7770" windowWidth="28830" windowHeight="7830"/>
+    <workbookView xWindow="4800" yWindow="6525" windowWidth="27945" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LocalizationNPC" sheetId="1" r:id="rId1"/>
@@ -399,8 +399,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -559,6 +559,21 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -858,7 +873,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -984,6 +999,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
@@ -991,7 +1012,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="44">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1010,6 +1031,8 @@
     <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="LogContent" xfId="42" xr:uid="{F22994A2-322F-4FA3-BB74-18224ABA626F}"/>
+    <cellStyle name="LogTitle" xfId="43" xr:uid="{D091DFFC-B2C3-47A4-8B44-1509A8C8A3D0}"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -1036,7 +1059,9 @@
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{B7B2AE9A-B92D-4AFE-8F48-5B9147A6B6F5}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1344,10 +1369,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1914,5 +1941,6 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>